--- a/Choperia - 5/produto/tabelas/produtos.xlsx
+++ b/Choperia - 5/produto/tabelas/produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\Choperia - 5\produto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\Choperia - 5\produto\tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC0B69-7B25-4AD3-A286-8CBE1DAB67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176F9472-A53A-4A91-B5F3-3BE3F1FF3D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-336" yWindow="0" windowWidth="23304" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,6 +418,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,8 +728,8 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,10 +761,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1395,5 +1398,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>